--- a/Java/3. Lehrjahr/Java Tests.xlsx
+++ b/Java/3. Lehrjahr/Java Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2990DF7-4911-42AB-9340-3C492FD1EB14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D9147-D22B-4889-9E45-A292A3B71A4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,11 +103,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3DB55A2-0CD3-4DC2-B3D8-A466CF9837DA}" name="Tabelle1" displayName="Tabelle1" ref="A1:B12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3DB55A2-0CD3-4DC2-B3D8-A466CF9837DA}" name="Tabelle1" displayName="Tabelle1" ref="A1:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B12" xr:uid="{0CD8A8EA-D957-43BF-9BE2-6A3584B94F1E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04FAA85C-1286-44F6-8406-C3B58F37E6D8}" name="Test Nr." dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D6496DAF-C886-4E37-8DB0-1A1FB0B3B689}" name="%" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{04FAA85C-1286-44F6-8406-C3B58F37E6D8}" name="Test Nr." dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D6496DAF-C886-4E37-8DB0-1A1FB0B3B689}" name="%" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Java/3. Lehrjahr/Java Tests.xlsx
+++ b/Java/3. Lehrjahr/Java Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D9147-D22B-4889-9E45-A292A3B71A4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DA3DCD-A834-4517-BD55-F589B2EAB4F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,9 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -484,7 +486,7 @@
       </c>
       <c r="B12" s="1">
         <f>AVERAGE(B2:B11)</f>
-        <v>91.444444444444443</v>
+        <v>82.3</v>
       </c>
     </row>
   </sheetData>

--- a/Java/3. Lehrjahr/Java Tests.xlsx
+++ b/Java/3. Lehrjahr/Java Tests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DA3DCD-A834-4517-BD55-F589B2EAB4F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00C6D1C-EC56-46CB-BC42-6EC2CDBC3738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
       </c>
       <c r="B12" s="1">
         <f>AVERAGE(B2:B11)</f>
-        <v>82.3</v>
+        <v>91.3</v>
       </c>
     </row>
   </sheetData>
